--- a/DB_and_variable.xlsx
+++ b/DB_and_variable.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="153">
   <si>
     <t>user_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -618,6 +618,30 @@
   </si>
   <si>
     <t>faq_hits</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reviews 테이블 [리뷰 테이블]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리뷰 내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>별점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>star</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>좋아요</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1060,7 +1084,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1091,50 +1115,134 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1142,89 +1250,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1507,10 +1534,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L61"/>
+  <dimension ref="A1:L66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B40" workbookViewId="0">
-      <selection activeCell="E47" sqref="E47"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1531,74 +1558,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.4">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="46" t="s">
         <v>131</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
     </row>
     <row r="2" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="3" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="32" t="s">
         <v>138</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="29"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="34"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="47" t="s">
         <v>125</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="30" t="s">
+      <c r="D4" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="30" t="s">
+      <c r="E4" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="30" t="s">
+      <c r="F4" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="G4" s="30" t="s">
+      <c r="G4" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="H4" s="30" t="s">
+      <c r="H4" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="I4" s="30" t="s">
+      <c r="I4" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="J4" s="30" t="s">
+      <c r="J4" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="K4" s="30" t="s">
+      <c r="K4" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="L4" s="31" t="s">
+      <c r="L4" s="22" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A5" s="24"/>
-      <c r="B5" s="23" t="s">
+      <c r="A5" s="48"/>
+      <c r="B5" s="20" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -1628,12 +1655,12 @@
       <c r="K5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L5" s="12" t="s">
+      <c r="L5" s="11" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A6" s="13">
+      <c r="A6" s="12">
         <v>1</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -1666,85 +1693,85 @@
       <c r="K6" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="L6" s="12" t="b">
+      <c r="L6" s="11" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="14">
+      <c r="A7" s="13">
         <v>2</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="14">
         <v>12345</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="E7" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="F7" s="40" t="s">
+      <c r="F7" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="G7" s="15" t="s">
+      <c r="G7" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="H7" s="15">
+      <c r="H7" s="14">
         <v>33</v>
       </c>
-      <c r="I7" s="15">
+      <c r="I7" s="14">
         <v>45.55</v>
       </c>
-      <c r="J7" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="K7" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="L7" s="16" t="b">
+      <c r="J7" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="K7" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="L7" s="15" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="9" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="36" t="s">
         <v>136</v>
       </c>
-      <c r="B9" s="33"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="34"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="38"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A10" s="37" t="s">
+      <c r="A10" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="30" t="s">
+      <c r="B10" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="C10" s="30" t="s">
+      <c r="C10" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="30" t="s">
+      <c r="D10" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="E10" s="30" t="s">
+      <c r="E10" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="F10" s="30" t="s">
+      <c r="F10" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="G10" s="31" t="s">
+      <c r="G10" s="22" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A11" s="10"/>
+      <c r="A11" s="31"/>
       <c r="B11" s="4" t="s">
         <v>115</v>
       </c>
@@ -1760,12 +1787,12 @@
       <c r="F11" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="G11" s="18" t="s">
+      <c r="G11" s="17" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A12" s="13">
+      <c r="A12" s="12">
         <v>1</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -1783,709 +1810,782 @@
       <c r="F12" s="2">
         <v>111</v>
       </c>
-      <c r="G12" s="12">
+      <c r="G12" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="14">
+      <c r="A13" s="13">
         <v>2</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="C13" s="41">
+      <c r="C13" s="25">
         <v>44542</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="D13" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="E13" s="15">
+      <c r="E13" s="14">
         <v>1111</v>
       </c>
-      <c r="F13" s="15">
+      <c r="F13" s="14">
         <v>535</v>
       </c>
-      <c r="G13" s="16">
+      <c r="G13" s="15">
         <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="15" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="32" t="s">
+      <c r="A15" s="36" t="s">
         <v>137</v>
       </c>
-      <c r="B15" s="33"/>
-      <c r="C15" s="34"/>
+      <c r="B15" s="37"/>
+      <c r="C15" s="38"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A16" s="38" t="s">
+      <c r="A16" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="30" t="s">
+      <c r="B16" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="C16" s="31" t="s">
+      <c r="C16" s="22" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A17" s="22"/>
-      <c r="B17" s="18" t="s">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A17" s="50"/>
+      <c r="B17" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="C17" s="20" t="s">
+      <c r="C17" s="18" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A18" s="13">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A18" s="12">
         <v>1</v>
       </c>
       <c r="B18" s="2">
         <v>1</v>
       </c>
-      <c r="C18" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="14">
+      <c r="C18" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="13">
         <v>2</v>
       </c>
-      <c r="B19" s="15">
-        <v>1</v>
-      </c>
-      <c r="C19" s="16">
+      <c r="B19" s="14">
+        <v>1</v>
+      </c>
+      <c r="C19" s="15">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A20" s="51"/>
-      <c r="B20" s="51"/>
-      <c r="C20" s="51"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A21" s="51"/>
-      <c r="B21" s="51"/>
-      <c r="C21" s="51"/>
-    </row>
-    <row r="22" spans="1:11" ht="21" x14ac:dyDescent="0.4">
-      <c r="A22" s="52" t="s">
+    <row r="20" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="28"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="28"/>
+    </row>
+    <row r="21" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="32" t="s">
+        <v>147</v>
+      </c>
+      <c r="B21" s="33"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="55"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A22" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="C22" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="D22" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="E22" s="22" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A23" s="31"/>
+      <c r="B23" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E23" s="18" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A24" s="12">
+        <v>1</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C24" s="2">
+        <v>5</v>
+      </c>
+      <c r="D24" s="2">
+        <v>1</v>
+      </c>
+      <c r="E24" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="13">
+        <v>2</v>
+      </c>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14">
+        <v>1</v>
+      </c>
+      <c r="E25" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A26" s="28"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="28"/>
+    </row>
+    <row r="27" spans="1:8" ht="21" x14ac:dyDescent="0.4">
+      <c r="A27" s="46" t="s">
         <v>130</v>
       </c>
-      <c r="B22" s="52"/>
-      <c r="C22" s="52"/>
-      <c r="D22" s="52"/>
-      <c r="E22" s="52"/>
-      <c r="F22" s="52"/>
-      <c r="G22" s="52"/>
-    </row>
-    <row r="23" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="24" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="27" t="s">
+      <c r="B27" s="46"/>
+      <c r="C27" s="46"/>
+      <c r="D27" s="46"/>
+      <c r="E27" s="46"/>
+      <c r="F27" s="46"/>
+      <c r="G27" s="46"/>
+    </row>
+    <row r="28" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="29" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A29" s="32" t="s">
         <v>133</v>
       </c>
-      <c r="B24" s="28"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="9"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A25" s="47" t="s">
+      <c r="B29" s="33"/>
+      <c r="C29" s="33"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="33"/>
+      <c r="F29" s="33"/>
+      <c r="G29" s="34"/>
+      <c r="H29" s="9"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A30" s="51" t="s">
         <v>87</v>
       </c>
-      <c r="B25" s="30" t="s">
+      <c r="B30" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="C25" s="30" t="s">
+      <c r="C30" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="D25" s="30" t="s">
+      <c r="D30" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="E25" s="30" t="s">
+      <c r="E30" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="F25" s="30" t="s">
+      <c r="F30" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="G25" s="31" t="s">
+      <c r="G30" s="22" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A26" s="46"/>
-      <c r="B26" s="2" t="s">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A31" s="52"/>
+      <c r="B31" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C31" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D31" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="E31" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="F31" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="G26" s="12" t="s">
+      <c r="G31" s="11" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A27" s="44">
-        <v>1</v>
-      </c>
-      <c r="B27" s="2" t="s">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A32" s="26">
+        <v>1</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C32" s="2">
         <v>22</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D32" s="2">
         <v>44</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="E32" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F27" s="2">
+      <c r="F32" s="2">
         <v>3</v>
       </c>
-      <c r="G27" s="12">
+      <c r="G32" s="11">
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="45">
+    <row r="33" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A33" s="27">
         <v>2</v>
       </c>
-      <c r="B28" s="15" t="s">
+      <c r="B33" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="C28" s="15">
+      <c r="C33" s="14">
         <v>17</v>
       </c>
-      <c r="D28" s="15">
+      <c r="D33" s="14">
         <v>53</v>
       </c>
-      <c r="E28" s="15" t="s">
+      <c r="E33" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="F28" s="15">
+      <c r="F33" s="14">
         <v>4</v>
       </c>
-      <c r="G28" s="16">
+      <c r="G33" s="15">
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="30" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A30" s="48" t="s">
+    <row r="34" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="35" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A35" s="39" t="s">
         <v>134</v>
       </c>
-      <c r="B30" s="49"/>
-      <c r="C30" s="49"/>
-      <c r="D30" s="49"/>
-      <c r="E30" s="49"/>
-      <c r="F30" s="50"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="54" t="s">
+      <c r="B35" s="40"/>
+      <c r="C35" s="40"/>
+      <c r="D35" s="40"/>
+      <c r="E35" s="40"/>
+      <c r="F35" s="41"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="29" t="s">
         <v>142</v>
       </c>
-      <c r="I30" s="53"/>
-      <c r="J30" s="53"/>
-      <c r="K30" s="53"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A31" s="25" t="s">
+      <c r="I35" s="30"/>
+      <c r="J35" s="30"/>
+      <c r="K35" s="30"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A36" s="53" t="s">
         <v>88</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B36" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="C36" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="D31" s="8" t="s">
+      <c r="D36" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="E31" s="8" t="s">
+      <c r="E36" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="F31" s="21" t="s">
+      <c r="F36" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="H31" s="53"/>
-      <c r="I31" s="53"/>
-      <c r="J31" s="53"/>
-      <c r="K31" s="53"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A32" s="26"/>
-      <c r="B32" s="20" t="s">
+      <c r="H36" s="30"/>
+      <c r="I36" s="30"/>
+      <c r="J36" s="30"/>
+      <c r="K36" s="30"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A37" s="54"/>
+      <c r="B37" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C37" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="D37" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="E37" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="F32" s="12" t="s">
+      <c r="F37" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="H32" s="53"/>
-      <c r="I32" s="53"/>
-      <c r="J32" s="53"/>
-      <c r="K32" s="53"/>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A33" s="13">
-        <v>1</v>
-      </c>
-      <c r="B33" s="2">
-        <v>1</v>
-      </c>
-      <c r="C33" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="D33" s="2" t="s">
+      <c r="H37" s="30"/>
+      <c r="I37" s="30"/>
+      <c r="J37" s="30"/>
+      <c r="K37" s="30"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A38" s="12">
+        <v>1</v>
+      </c>
+      <c r="B38" s="2">
+        <v>1</v>
+      </c>
+      <c r="C38" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D38" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="E38" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F33" s="12">
+      <c r="F38" s="11">
         <v>2000</v>
       </c>
-      <c r="H33" s="53"/>
-      <c r="I33" s="53"/>
-      <c r="J33" s="53"/>
-      <c r="K33" s="53"/>
-    </row>
-    <row r="34" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="14">
+      <c r="H38" s="30"/>
+      <c r="I38" s="30"/>
+      <c r="J38" s="30"/>
+      <c r="K38" s="30"/>
+    </row>
+    <row r="39" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A39" s="13">
         <v>2</v>
       </c>
-      <c r="B34" s="15">
-        <v>1</v>
-      </c>
-      <c r="C34" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="D34" s="15" t="s">
+      <c r="B39" s="14">
+        <v>1</v>
+      </c>
+      <c r="C39" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="D39" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="E34" s="15" t="s">
+      <c r="E39" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="F34" s="16">
+      <c r="F39" s="15">
         <v>4000</v>
       </c>
-      <c r="H34" s="53"/>
-      <c r="I34" s="53"/>
-      <c r="J34" s="53"/>
-      <c r="K34" s="53"/>
-    </row>
-    <row r="35" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="36" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A36" s="32" t="s">
+      <c r="H39" s="30"/>
+      <c r="I39" s="30"/>
+      <c r="J39" s="30"/>
+      <c r="K39" s="30"/>
+    </row>
+    <row r="40" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="41" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A41" s="36" t="s">
         <v>135</v>
       </c>
-      <c r="B36" s="33"/>
-      <c r="C36" s="33"/>
-      <c r="D36" s="34"/>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A37" s="35" t="s">
+      <c r="B41" s="37"/>
+      <c r="C41" s="37"/>
+      <c r="D41" s="38"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A42" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="B37" s="30" t="s">
+      <c r="B42" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C37" s="30" t="s">
+      <c r="C42" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="D37" s="36" t="s">
+      <c r="D42" s="23" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A38" s="19"/>
-      <c r="B38" s="2" t="s">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A43" s="43"/>
+      <c r="B43" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C43" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="D38" s="20" t="s">
+      <c r="D43" s="18" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A39" s="13">
-        <v>1</v>
-      </c>
-      <c r="B39" s="2" t="s">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A44" s="12">
+        <v>1</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C39" s="2">
+      <c r="C44" s="2">
         <v>1000</v>
       </c>
-      <c r="D39" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A40" s="14">
+      <c r="D44" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A45" s="13">
         <v>2</v>
       </c>
-      <c r="B40" s="15" t="s">
+      <c r="B45" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C40" s="15">
+      <c r="C45" s="14">
         <v>500</v>
       </c>
-      <c r="D40" s="16">
+      <c r="D45" s="15">
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A41" s="51"/>
-      <c r="B41" s="51"/>
-      <c r="C41" s="51"/>
-      <c r="D41" s="51"/>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A42" s="51"/>
-      <c r="B42" s="51"/>
-      <c r="C42" s="51"/>
-      <c r="D42" s="51"/>
-    </row>
-    <row r="43" spans="1:11" ht="21" x14ac:dyDescent="0.4">
-      <c r="A43" s="52" t="s">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A46" s="28"/>
+      <c r="B46" s="28"/>
+      <c r="C46" s="28"/>
+      <c r="D46" s="28"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A47" s="28"/>
+      <c r="B47" s="28"/>
+      <c r="C47" s="28"/>
+      <c r="D47" s="28"/>
+    </row>
+    <row r="48" spans="1:11" ht="21" x14ac:dyDescent="0.4">
+      <c r="A48" s="46" t="s">
         <v>132</v>
       </c>
-      <c r="B43" s="52"/>
-      <c r="C43" s="52"/>
-      <c r="D43" s="52"/>
-      <c r="E43" s="52"/>
-      <c r="F43" s="52"/>
-      <c r="G43" s="52"/>
-    </row>
-    <row r="44" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="45" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A45" s="27" t="s">
+      <c r="B48" s="46"/>
+      <c r="C48" s="46"/>
+      <c r="D48" s="46"/>
+      <c r="E48" s="46"/>
+      <c r="F48" s="46"/>
+      <c r="G48" s="46"/>
+    </row>
+    <row r="49" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="50" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A50" s="32" t="s">
         <v>139</v>
       </c>
-      <c r="B45" s="28"/>
-      <c r="C45" s="28"/>
-      <c r="D45" s="28"/>
-      <c r="E45" s="28"/>
-      <c r="F45" s="28"/>
-      <c r="G45" s="29"/>
-      <c r="H45" s="9"/>
-      <c r="I45" s="9"/>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A46" s="42" t="s">
+      <c r="B50" s="33"/>
+      <c r="C50" s="33"/>
+      <c r="D50" s="33"/>
+      <c r="E50" s="33"/>
+      <c r="F50" s="33"/>
+      <c r="G50" s="34"/>
+      <c r="H50" s="9"/>
+      <c r="I50" s="9"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A51" s="44" t="s">
         <v>89</v>
       </c>
-      <c r="B46" s="30" t="s">
+      <c r="B51" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="C46" s="30" t="s">
+      <c r="C51" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="D46" s="30" t="s">
+      <c r="D51" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="E46" s="30" t="s">
+      <c r="E51" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="F46" s="30" t="s">
+      <c r="F51" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="G46" s="31" t="s">
+      <c r="G51" s="22" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A47" s="43"/>
-      <c r="B47" s="2" t="s">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A52" s="45"/>
+      <c r="B52" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="C52" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D47" s="2" t="s">
+      <c r="D52" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E47" s="2" t="s">
+      <c r="E52" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F47" s="2" t="s">
+      <c r="F52" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="G47" s="18" t="s">
+      <c r="G52" s="17" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A48" s="13">
-        <v>1</v>
-      </c>
-      <c r="B48" s="2" t="s">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A53" s="12">
+        <v>1</v>
+      </c>
+      <c r="B53" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="C53" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D48" s="2" t="s">
+      <c r="D53" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="E48" s="2">
+      <c r="E53" s="2">
         <v>2</v>
       </c>
-      <c r="F48" s="6">
+      <c r="F53" s="6">
         <v>44378</v>
       </c>
-      <c r="G48" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A49" s="14">
+      <c r="G53" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A54" s="13">
         <v>2</v>
       </c>
-      <c r="B49" s="15" t="s">
+      <c r="B54" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="C49" s="15" t="s">
+      <c r="C54" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="D49" s="15" t="s">
+      <c r="D54" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="E49" s="15">
+      <c r="E54" s="14">
         <v>0</v>
       </c>
-      <c r="F49" s="41">
+      <c r="F54" s="25">
         <v>44378</v>
       </c>
-      <c r="G49" s="16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A51" s="27" t="s">
+      <c r="G54" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A56" s="32" t="s">
         <v>140</v>
       </c>
-      <c r="B51" s="28"/>
-      <c r="C51" s="28"/>
-      <c r="D51" s="28"/>
-      <c r="E51" s="29"/>
-      <c r="F51" s="9"/>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A52" s="10" t="s">
+      <c r="B56" s="33"/>
+      <c r="C56" s="33"/>
+      <c r="D56" s="33"/>
+      <c r="E56" s="34"/>
+      <c r="F56" s="9"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A57" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="B52" s="7" t="s">
+      <c r="B57" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="C52" s="7" t="s">
+      <c r="C57" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="D52" s="7" t="s">
+      <c r="D57" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="E52" s="11" t="s">
+      <c r="E57" s="10" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A53" s="10"/>
-      <c r="B53" s="2" t="s">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A58" s="31"/>
+      <c r="B58" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="C58" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D53" s="3" t="s">
+      <c r="D58" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="E53" s="17" t="s">
+      <c r="E58" s="16" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A54" s="13">
-        <v>1</v>
-      </c>
-      <c r="B54" s="6">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A59" s="12">
+        <v>1</v>
+      </c>
+      <c r="B59" s="6">
         <v>44378</v>
       </c>
-      <c r="C54" s="2" t="s">
+      <c r="C59" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D54" s="2">
-        <v>1</v>
-      </c>
-      <c r="E54" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A55" s="14">
+      <c r="D59" s="2">
+        <v>1</v>
+      </c>
+      <c r="E59" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A60" s="13">
         <v>2</v>
       </c>
-      <c r="B55" s="15" t="s">
+      <c r="B60" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="C55" s="15" t="s">
+      <c r="C60" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="D55" s="15">
+      <c r="D60" s="14">
         <v>2</v>
       </c>
-      <c r="E55" s="16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="57" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A57" s="32" t="s">
+      <c r="E60" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="62" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A62" s="36" t="s">
         <v>141</v>
       </c>
-      <c r="B57" s="33"/>
-      <c r="C57" s="33"/>
-      <c r="D57" s="33"/>
-      <c r="E57" s="34"/>
-      <c r="G57" s="54" t="s">
+      <c r="B62" s="37"/>
+      <c r="C62" s="37"/>
+      <c r="D62" s="37"/>
+      <c r="E62" s="38"/>
+      <c r="G62" s="29" t="s">
         <v>143</v>
       </c>
-      <c r="H57" s="53"/>
-      <c r="I57" s="53"/>
-      <c r="J57" s="53"/>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A58" s="37" t="s">
+      <c r="H62" s="30"/>
+      <c r="I62" s="30"/>
+      <c r="J62" s="30"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A63" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="B58" s="30" t="s">
+      <c r="B63" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="C58" s="30" t="s">
+      <c r="C63" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="D58" s="30" t="s">
+      <c r="D63" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="E58" s="31" t="s">
+      <c r="E63" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="G58" s="53"/>
-      <c r="H58" s="53"/>
-      <c r="I58" s="53"/>
-      <c r="J58" s="53"/>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A59" s="10"/>
-      <c r="B59" s="2" t="s">
+      <c r="G63" s="30"/>
+      <c r="H63" s="30"/>
+      <c r="I63" s="30"/>
+      <c r="J63" s="30"/>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A64" s="31"/>
+      <c r="B64" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C59" s="2" t="s">
+      <c r="C64" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D59" s="2" t="s">
+      <c r="D64" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="E59" s="12" t="s">
+      <c r="E64" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="G59" s="53"/>
-      <c r="H59" s="53"/>
-      <c r="I59" s="53"/>
-      <c r="J59" s="53"/>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A60" s="13">
-        <v>1</v>
-      </c>
-      <c r="B60" s="2" t="s">
+      <c r="G64" s="30"/>
+      <c r="H64" s="30"/>
+      <c r="I64" s="30"/>
+      <c r="J64" s="30"/>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A65" s="12">
+        <v>1</v>
+      </c>
+      <c r="B65" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C60" s="2" t="s">
+      <c r="C65" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D60" s="2">
+      <c r="D65" s="2">
         <v>10</v>
       </c>
-      <c r="E60" s="12" t="s">
+      <c r="E65" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="G60" s="53"/>
-      <c r="H60" s="53"/>
-      <c r="I60" s="53"/>
-      <c r="J60" s="53"/>
-    </row>
-    <row r="61" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A61" s="14">
+      <c r="G65" s="30"/>
+      <c r="H65" s="30"/>
+      <c r="I65" s="30"/>
+      <c r="J65" s="30"/>
+    </row>
+    <row r="66" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A66" s="13">
         <v>2</v>
       </c>
-      <c r="B61" s="15" t="s">
+      <c r="B66" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="C61" s="15" t="s">
+      <c r="C66" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="D61" s="15">
+      <c r="D66" s="14">
         <v>5</v>
       </c>
-      <c r="E61" s="16" t="s">
+      <c r="E66" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="G61" s="53"/>
-      <c r="H61" s="53"/>
-      <c r="I61" s="53"/>
-      <c r="J61" s="53"/>
+      <c r="G66" s="30"/>
+      <c r="H66" s="30"/>
+      <c r="I66" s="30"/>
+      <c r="J66" s="30"/>
     </row>
   </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="H30:K34"/>
-    <mergeCell ref="G57:J61"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="A51:E51"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="A57:E57"/>
-    <mergeCell ref="A45:G45"/>
-    <mergeCell ref="A24:G24"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="A46:A47"/>
+  <mergeCells count="25">
     <mergeCell ref="A3:L3"/>
-    <mergeCell ref="A43:G43"/>
-    <mergeCell ref="A22:G22"/>
+    <mergeCell ref="A48:G48"/>
+    <mergeCell ref="A27:G27"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A36:A37"/>
     <mergeCell ref="A15:C15"/>
     <mergeCell ref="A9:G9"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A29:G29"/>
+    <mergeCell ref="A35:F35"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="H35:K39"/>
+    <mergeCell ref="G62:J66"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="A56:E56"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="A62:E62"/>
+    <mergeCell ref="A50:G50"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/DB_and_variable.xlsx
+++ b/DB_and_variable.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Class\Project\miniproject2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\django\miniproject2\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E25A966-4785-440D-887D-0EBA9F48B6BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5688"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="161">
   <si>
     <t>user_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -644,11 +645,43 @@
     <t>좋아요</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>지번주소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도로명주소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전화번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>laundry_address</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>laundry_road</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>laundry_tel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자 주소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_address</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1172,86 +1205,86 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1533,11 +1566,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L66"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="C16" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1549,44 +1582,45 @@
     <col min="5" max="5" width="24.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.796875" style="1"/>
+    <col min="13" max="13" width="12.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.4">
-      <c r="A1" s="46" t="s">
+    <row r="1" spans="1:13" ht="21" x14ac:dyDescent="0.4">
+      <c r="A1" s="33" t="s">
         <v>131</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-    </row>
-    <row r="2" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="3" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="32" t="s">
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+    </row>
+    <row r="2" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="3" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="30" t="s">
         <v>138</v>
       </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
-      <c r="L3" s="34"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A4" s="47" t="s">
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="32"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A4" s="34" t="s">
         <v>125</v>
       </c>
       <c r="B4" s="21" t="s">
@@ -1622,9 +1656,12 @@
       <c r="L4" s="22" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A5" s="48"/>
+      <c r="M4" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A5" s="35"/>
       <c r="B5" s="20" t="s">
         <v>0</v>
       </c>
@@ -1658,8 +1695,11 @@
       <c r="L5" s="11" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M5" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A6" s="12">
         <v>1</v>
       </c>
@@ -1697,7 +1737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="13">
         <v>2</v>
       </c>
@@ -1735,20 +1775,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="9" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="36" t="s">
+    <row r="8" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="9" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="44" t="s">
         <v>136</v>
       </c>
-      <c r="B9" s="37"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="38"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A10" s="35" t="s">
+      <c r="B9" s="45"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="46"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A10" s="36" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="21" t="s">
@@ -1770,8 +1810,8 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A11" s="31"/>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A11" s="37"/>
       <c r="B11" s="4" t="s">
         <v>115</v>
       </c>
@@ -1791,7 +1831,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A12" s="12">
         <v>1</v>
       </c>
@@ -1814,7 +1854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A13" s="13">
         <v>2</v>
       </c>
@@ -1837,16 +1877,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="15" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="36" t="s">
+    <row r="14" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="15" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="44" t="s">
         <v>137</v>
       </c>
-      <c r="B15" s="37"/>
-      <c r="C15" s="38"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A16" s="49" t="s">
+      <c r="B15" s="45"/>
+      <c r="C15" s="46"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A16" s="38" t="s">
         <v>5</v>
       </c>
       <c r="B16" s="21" t="s">
@@ -1856,8 +1896,8 @@
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A17" s="50"/>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A17" s="39"/>
       <c r="B17" s="17" t="s">
         <v>85</v>
       </c>
@@ -1865,7 +1905,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A18" s="12">
         <v>1</v>
       </c>
@@ -1876,7 +1916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A19" s="13">
         <v>2</v>
       </c>
@@ -1887,22 +1927,22 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A20" s="28"/>
       <c r="B20" s="28"/>
       <c r="C20" s="28"/>
     </row>
-    <row r="21" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="32" t="s">
+    <row r="21" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="30" t="s">
         <v>147</v>
       </c>
-      <c r="B21" s="33"/>
-      <c r="C21" s="33"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="55"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A22" s="35" t="s">
+      <c r="B21" s="31"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="29"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A22" s="36" t="s">
         <v>5</v>
       </c>
       <c r="B22" s="21" t="s">
@@ -1918,8 +1958,8 @@
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A23" s="31"/>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A23" s="37"/>
       <c r="B23" s="2" t="s">
         <v>150</v>
       </c>
@@ -1933,7 +1973,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A24" s="12">
         <v>1</v>
       </c>
@@ -1950,7 +1990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="13">
         <v>2</v>
       </c>
@@ -1963,37 +2003,37 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A26" s="28"/>
       <c r="B26" s="28"/>
       <c r="C26" s="28"/>
     </row>
-    <row r="27" spans="1:8" ht="21" x14ac:dyDescent="0.4">
-      <c r="A27" s="46" t="s">
+    <row r="27" spans="1:10" ht="21" x14ac:dyDescent="0.4">
+      <c r="A27" s="33" t="s">
         <v>130</v>
       </c>
-      <c r="B27" s="46"/>
-      <c r="C27" s="46"/>
-      <c r="D27" s="46"/>
-      <c r="E27" s="46"/>
-      <c r="F27" s="46"/>
-      <c r="G27" s="46"/>
-    </row>
-    <row r="28" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="29" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="32" t="s">
+      <c r="B27" s="33"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="33"/>
+    </row>
+    <row r="28" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="29" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A29" s="30" t="s">
         <v>133</v>
       </c>
-      <c r="B29" s="33"/>
-      <c r="C29" s="33"/>
-      <c r="D29" s="33"/>
-      <c r="E29" s="33"/>
-      <c r="F29" s="33"/>
-      <c r="G29" s="34"/>
+      <c r="B29" s="31"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="32"/>
       <c r="H29" s="9"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A30" s="51" t="s">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A30" s="40" t="s">
         <v>87</v>
       </c>
       <c r="B30" s="21" t="s">
@@ -2014,9 +2054,18 @@
       <c r="G30" s="22" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A31" s="52"/>
+      <c r="H30" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A31" s="41"/>
       <c r="B31" s="2" t="s">
         <v>7</v>
       </c>
@@ -2035,8 +2084,17 @@
       <c r="G31" s="11" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H31" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A32" s="26">
         <v>1</v>
       </c>
@@ -2084,24 +2142,24 @@
     </row>
     <row r="34" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="35" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="39" t="s">
+      <c r="A35" s="47" t="s">
         <v>134</v>
       </c>
-      <c r="B35" s="40"/>
-      <c r="C35" s="40"/>
-      <c r="D35" s="40"/>
-      <c r="E35" s="40"/>
-      <c r="F35" s="41"/>
+      <c r="B35" s="48"/>
+      <c r="C35" s="48"/>
+      <c r="D35" s="48"/>
+      <c r="E35" s="48"/>
+      <c r="F35" s="49"/>
       <c r="G35" s="9"/>
-      <c r="H35" s="29" t="s">
+      <c r="H35" s="54" t="s">
         <v>142</v>
       </c>
-      <c r="I35" s="30"/>
-      <c r="J35" s="30"/>
-      <c r="K35" s="30"/>
+      <c r="I35" s="55"/>
+      <c r="J35" s="55"/>
+      <c r="K35" s="55"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A36" s="53" t="s">
+      <c r="A36" s="42" t="s">
         <v>88</v>
       </c>
       <c r="B36" s="8" t="s">
@@ -2119,13 +2177,13 @@
       <c r="F36" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="H36" s="30"/>
-      <c r="I36" s="30"/>
-      <c r="J36" s="30"/>
-      <c r="K36" s="30"/>
+      <c r="H36" s="55"/>
+      <c r="I36" s="55"/>
+      <c r="J36" s="55"/>
+      <c r="K36" s="55"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A37" s="54"/>
+      <c r="A37" s="43"/>
       <c r="B37" s="18" t="s">
         <v>86</v>
       </c>
@@ -2141,10 +2199,10 @@
       <c r="F37" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="H37" s="30"/>
-      <c r="I37" s="30"/>
-      <c r="J37" s="30"/>
-      <c r="K37" s="30"/>
+      <c r="H37" s="55"/>
+      <c r="I37" s="55"/>
+      <c r="J37" s="55"/>
+      <c r="K37" s="55"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A38" s="12">
@@ -2165,10 +2223,10 @@
       <c r="F38" s="11">
         <v>2000</v>
       </c>
-      <c r="H38" s="30"/>
-      <c r="I38" s="30"/>
-      <c r="J38" s="30"/>
-      <c r="K38" s="30"/>
+      <c r="H38" s="55"/>
+      <c r="I38" s="55"/>
+      <c r="J38" s="55"/>
+      <c r="K38" s="55"/>
     </row>
     <row r="39" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A39" s="13">
@@ -2189,22 +2247,22 @@
       <c r="F39" s="15">
         <v>4000</v>
       </c>
-      <c r="H39" s="30"/>
-      <c r="I39" s="30"/>
-      <c r="J39" s="30"/>
-      <c r="K39" s="30"/>
+      <c r="H39" s="55"/>
+      <c r="I39" s="55"/>
+      <c r="J39" s="55"/>
+      <c r="K39" s="55"/>
     </row>
     <row r="40" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="41" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A41" s="36" t="s">
+      <c r="A41" s="44" t="s">
         <v>135</v>
       </c>
-      <c r="B41" s="37"/>
-      <c r="C41" s="37"/>
-      <c r="D41" s="38"/>
+      <c r="B41" s="45"/>
+      <c r="C41" s="45"/>
+      <c r="D41" s="46"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A42" s="42" t="s">
+      <c r="A42" s="50" t="s">
         <v>8</v>
       </c>
       <c r="B42" s="21" t="s">
@@ -2218,7 +2276,7 @@
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A43" s="43"/>
+      <c r="A43" s="51"/>
       <c r="B43" s="2" t="s">
         <v>67</v>
       </c>
@@ -2270,32 +2328,32 @@
       <c r="D47" s="28"/>
     </row>
     <row r="48" spans="1:11" ht="21" x14ac:dyDescent="0.4">
-      <c r="A48" s="46" t="s">
+      <c r="A48" s="33" t="s">
         <v>132</v>
       </c>
-      <c r="B48" s="46"/>
-      <c r="C48" s="46"/>
-      <c r="D48" s="46"/>
-      <c r="E48" s="46"/>
-      <c r="F48" s="46"/>
-      <c r="G48" s="46"/>
+      <c r="B48" s="33"/>
+      <c r="C48" s="33"/>
+      <c r="D48" s="33"/>
+      <c r="E48" s="33"/>
+      <c r="F48" s="33"/>
+      <c r="G48" s="33"/>
     </row>
     <row r="49" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="50" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A50" s="32" t="s">
+      <c r="A50" s="30" t="s">
         <v>139</v>
       </c>
-      <c r="B50" s="33"/>
-      <c r="C50" s="33"/>
-      <c r="D50" s="33"/>
-      <c r="E50" s="33"/>
-      <c r="F50" s="33"/>
-      <c r="G50" s="34"/>
+      <c r="B50" s="31"/>
+      <c r="C50" s="31"/>
+      <c r="D50" s="31"/>
+      <c r="E50" s="31"/>
+      <c r="F50" s="31"/>
+      <c r="G50" s="32"/>
       <c r="H50" s="9"/>
       <c r="I50" s="9"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A51" s="44" t="s">
+      <c r="A51" s="52" t="s">
         <v>89</v>
       </c>
       <c r="B51" s="21" t="s">
@@ -2318,7 +2376,7 @@
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A52" s="45"/>
+      <c r="A52" s="53"/>
       <c r="B52" s="2" t="s">
         <v>12</v>
       </c>
@@ -2386,17 +2444,17 @@
     </row>
     <row r="55" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="56" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A56" s="32" t="s">
+      <c r="A56" s="30" t="s">
         <v>140</v>
       </c>
-      <c r="B56" s="33"/>
-      <c r="C56" s="33"/>
-      <c r="D56" s="33"/>
-      <c r="E56" s="34"/>
+      <c r="B56" s="31"/>
+      <c r="C56" s="31"/>
+      <c r="D56" s="31"/>
+      <c r="E56" s="32"/>
       <c r="F56" s="9"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A57" s="31" t="s">
+      <c r="A57" s="37" t="s">
         <v>8</v>
       </c>
       <c r="B57" s="7" t="s">
@@ -2413,7 +2471,7 @@
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A58" s="31"/>
+      <c r="A58" s="37"/>
       <c r="B58" s="2" t="s">
         <v>145</v>
       </c>
@@ -2463,22 +2521,22 @@
     </row>
     <row r="61" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="62" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A62" s="36" t="s">
+      <c r="A62" s="44" t="s">
         <v>141</v>
       </c>
-      <c r="B62" s="37"/>
-      <c r="C62" s="37"/>
-      <c r="D62" s="37"/>
-      <c r="E62" s="38"/>
-      <c r="G62" s="29" t="s">
+      <c r="B62" s="45"/>
+      <c r="C62" s="45"/>
+      <c r="D62" s="45"/>
+      <c r="E62" s="46"/>
+      <c r="G62" s="54" t="s">
         <v>143</v>
       </c>
-      <c r="H62" s="30"/>
-      <c r="I62" s="30"/>
-      <c r="J62" s="30"/>
+      <c r="H62" s="55"/>
+      <c r="I62" s="55"/>
+      <c r="J62" s="55"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A63" s="35" t="s">
+      <c r="A63" s="36" t="s">
         <v>8</v>
       </c>
       <c r="B63" s="21" t="s">
@@ -2493,13 +2551,13 @@
       <c r="E63" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="G63" s="30"/>
-      <c r="H63" s="30"/>
-      <c r="I63" s="30"/>
-      <c r="J63" s="30"/>
+      <c r="G63" s="55"/>
+      <c r="H63" s="55"/>
+      <c r="I63" s="55"/>
+      <c r="J63" s="55"/>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A64" s="31"/>
+      <c r="A64" s="37"/>
       <c r="B64" s="2" t="s">
         <v>17</v>
       </c>
@@ -2512,10 +2570,10 @@
       <c r="E64" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="G64" s="30"/>
-      <c r="H64" s="30"/>
-      <c r="I64" s="30"/>
-      <c r="J64" s="30"/>
+      <c r="G64" s="55"/>
+      <c r="H64" s="55"/>
+      <c r="I64" s="55"/>
+      <c r="J64" s="55"/>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A65" s="12">
@@ -2533,10 +2591,10 @@
       <c r="E65" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="G65" s="30"/>
-      <c r="H65" s="30"/>
-      <c r="I65" s="30"/>
-      <c r="J65" s="30"/>
+      <c r="G65" s="55"/>
+      <c r="H65" s="55"/>
+      <c r="I65" s="55"/>
+      <c r="J65" s="55"/>
     </row>
     <row r="66" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A66" s="13">
@@ -2554,13 +2612,22 @@
       <c r="E66" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="G66" s="30"/>
-      <c r="H66" s="30"/>
-      <c r="I66" s="30"/>
-      <c r="J66" s="30"/>
+      <c r="G66" s="55"/>
+      <c r="H66" s="55"/>
+      <c r="I66" s="55"/>
+      <c r="J66" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="H35:K39"/>
+    <mergeCell ref="G62:J66"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="A56:E56"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="A62:E62"/>
+    <mergeCell ref="A50:G50"/>
     <mergeCell ref="A3:L3"/>
     <mergeCell ref="A48:G48"/>
     <mergeCell ref="A27:G27"/>
@@ -2577,20 +2644,11 @@
     <mergeCell ref="A29:G29"/>
     <mergeCell ref="A35:F35"/>
     <mergeCell ref="A41:D41"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="H35:K39"/>
-    <mergeCell ref="G62:J66"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="A56:E56"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="A62:E62"/>
-    <mergeCell ref="A50:G50"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F6" r:id="rId1"/>
-    <hyperlink ref="F7" r:id="rId2"/>
+    <hyperlink ref="F6" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="F7" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
